--- a/loaded_influencer_data/life.with.loz/life.with.loz.xlsx
+++ b/loaded_influencer_data/life.with.loz/life.with.loz.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,34 @@
         <v>376</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8274</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D4" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8274</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
